--- a/test_questions.xlsx
+++ b/test_questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zirong/Desktop/CCD_RAG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47EC3E8D-96D4-114A-8420-217C375D3B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27CD9A5-F60C-9940-9326-9586199924E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4060" yWindow="760" windowWidth="19680" windowHeight="17100" xr2:uid="{49CF8178-EFA8-9643-BFB1-A8E39845DF37}"/>
+    <workbookView xWindow="4060" yWindow="740" windowWidth="19680" windowHeight="17100" xr2:uid="{49CF8178-EFA8-9643-BFB1-A8E39845DF37}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="127">
   <si>
     <t>我的臘腸狗已經 13 歲，最近總是在半夜突然狂吠，轉圈找不到床，還弄得全家都睡不著。白天牠又一直昏睡、反應遲鈍。我懷疑可能是 CCD，但不確定要怎麼做？請問如何判斷是不是失智，還有夜間吠叫該怎麼安撫或調整作息？</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -377,10 +377,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>知識</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>下列何者不是犬隻認知功能障礙 (CCD) 常見的主要症狀？
 A. 睡眠—覺醒週期顛倒
 B. 嚴重口腔潰瘍
@@ -552,9 +548,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fasle</t>
-  </si>
-  <si>
     <t>部分研究認為抗氧化劑與神經保護劑的結合療法，有機會延緩犬的認知功能衰退對嗎？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -597,6 +590,69 @@
   </si>
   <si>
     <t>對於失智犬是否可適度進行嗅聞遊戲、慢速散步等活動，以維持身心機能並降低焦慮？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下列哪一項研究發現與犬隻失智 (CCD) 病理最相關，並常被拿來比照人類阿茲海默症的核心變化？
+A. 體重指數 (Body Condition Score)
+B. β-amyloid 蛋白沉積
+C. 高血糖指數 (Hyperglycemia)
+D. 肝臟酵素升高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>β-amyloid、阿茲海默症類似病理、蛋白沉積、神經退行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在評估犬隻 CCD 的臨床症狀時，下列哪一項行為面向最常被列為主要觀察指標之一？
+A. 毛色是否變白
+B. 飲水量的增加
+C. 定向能力 (Orientation) 與空間辨識度
+D. 心跳與呼吸速率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定向能力、空間辨識、行為量表、臨床症狀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依據關於老犬腸—腦軸 (Gut-Brain Axis) 的研究，下列哪種方法可能有助於改善老犬在認知功能退化上的風險？
+A. 不斷嘗試高強度競賽
+B. 採用單一蛋白質來源的快速減肥配方
+C. 添加特定益生菌或調整腸道微生物群
+D. 完全仰賴鎮靜藥物穩定情緒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腸—腦軸、益生菌、腸道微生物群、認知功能</t>
+  </si>
+  <si>
+    <t>文獻中提到犬隻認知功能障礙 (CCD) 與中樞神經免疫反應的關聯，下列哪種細胞或炎症小體常被視作潛在研究重點？
+A. Osteoclast 骨細胞
+B. Microglia 與 NLRP3 inflammasome
+C. 肌肉纖維與 CK (Creatine Kinase)
+D. 紅血球大小 (MCV)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Microglia、NLRP3 inflammasome、神經發炎、CCD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>犬隻服用人類認知增強藥物（如前驅膽鹼類、抗氧化劑等）已被證實能完全逆轉老犬的 CCD 症狀。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>認知增強藥物、前驅膽鹼、完全逆轉、臨床效果有限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>針對犬隻失智 (CCD) 的診斷，單靠 MRI 或 CT 等影像學觀察大腦萎縮或斑塊沉積，即可準確區分 CCD 與其他神經退化疾病。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影像學輔助、MRI、CT、無法百分百區分、臨床量表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -695,19 +751,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -716,19 +772,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1065,10 +1121,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27A6E25-28F7-6A43-9063-8BB9C579CCE6}">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19"/>
@@ -1211,11 +1267,11 @@
       <c r="C7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="15" t="b">
+      <c r="D7" s="11" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>8</v>
@@ -1235,7 +1291,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>8</v>
@@ -1255,7 +1311,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>8</v>
@@ -1298,7 +1354,7 @@
         <v>15</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="32">
@@ -1331,11 +1387,11 @@
       <c r="C13" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>105</v>
+      <c r="D13" s="11" t="b">
+        <v>0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>8</v>
@@ -1349,13 +1405,13 @@
         <v>30</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>8</v>
@@ -1371,11 +1427,11 @@
       <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>105</v>
+      <c r="D15" s="11" t="b">
+        <v>0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>8</v>
@@ -1398,7 +1454,7 @@
         <v>21</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="32">
@@ -1415,7 +1471,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>8</v>
@@ -1530,10 +1586,10 @@
         <v>33</v>
       </c>
       <c r="D23" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>37</v>
@@ -1747,16 +1803,16 @@
         <v>46</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>52</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="96">
@@ -1767,16 +1823,16 @@
         <v>46</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D35" s="11" t="s">
         <v>52</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="96">
@@ -1787,16 +1843,16 @@
         <v>46</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D36" s="11" t="s">
         <v>52</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>70</v>
+        <v>74</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="96">
@@ -1807,16 +1863,16 @@
         <v>46</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D37" s="11" t="s">
         <v>52</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="96">
@@ -1827,16 +1883,16 @@
         <v>46</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D38" s="11" t="s">
         <v>49</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>70</v>
+        <v>79</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="48">
@@ -1847,13 +1903,13 @@
         <v>30</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D39" s="11" t="b">
         <v>1</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F39" s="5" t="s">
         <v>47</v>
@@ -1867,13 +1923,13 @@
         <v>30</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>105</v>
+        <v>113</v>
+      </c>
+      <c r="D40" s="11" t="b">
+        <v>0</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F40" s="5" t="s">
         <v>47</v>
@@ -1887,13 +1943,13 @@
         <v>30</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D41" s="11" t="b">
         <v>1</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F41" s="5" t="s">
         <v>47</v>
@@ -1907,13 +1963,13 @@
         <v>30</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>105</v>
+        <v>110</v>
+      </c>
+      <c r="D42" s="11" t="b">
+        <v>0</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F42" s="5" t="s">
         <v>47</v>
@@ -1927,13 +1983,13 @@
         <v>30</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D43" s="11" t="b">
         <v>1</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>47</v>
@@ -1947,13 +2003,13 @@
         <v>30</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>105</v>
+        <v>108</v>
+      </c>
+      <c r="D44" s="11" t="b">
+        <v>0</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>47</v>
@@ -1967,13 +2023,13 @@
         <v>30</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D45" s="11" t="b">
         <v>1</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F45" s="5" t="s">
         <v>47</v>
@@ -1987,13 +2043,13 @@
         <v>30</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="D46" s="11" t="b">
+        <v>0</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>47</v>
@@ -2007,13 +2063,13 @@
         <v>30</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="D47" s="11" t="s">
         <v>105</v>
       </c>
+      <c r="D47" s="11" t="b">
+        <v>0</v>
+      </c>
       <c r="E47" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>47</v>
@@ -2027,13 +2083,13 @@
         <v>30</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>105</v>
+        <v>112</v>
+      </c>
+      <c r="D48" s="11" t="b">
+        <v>0</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F48" s="5" t="s">
         <v>47</v>
@@ -2047,13 +2103,13 @@
         <v>30</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D49" s="11" t="b">
         <v>1</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F49" s="5" t="s">
         <v>47</v>
@@ -2067,17 +2123,365 @@
         <v>28</v>
       </c>
       <c r="C50" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="E50" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="F50" s="5" t="s">
         <v>47</v>
       </c>
+    </row>
+    <row r="51" spans="1:6" ht="140">
+      <c r="B51" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="120">
+      <c r="B52" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="140">
+      <c r="B53" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" t="s">
+        <v>120</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="140">
+      <c r="B54" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="60">
+      <c r="B55" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D55" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="60">
+      <c r="B56" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D56" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="2:5">
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="2:5">
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="2:5">
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="2:5">
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="2:5">
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="1"/>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" spans="2:5">
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/test_questions.xlsx
+++ b/test_questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zirong/Desktop/CCD_RAG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A27CD9A5-F60C-9940-9326-9586199924E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5641E6C-D5F5-8149-8EA7-1F468B156A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4060" yWindow="740" windowWidth="19680" windowHeight="17100" xr2:uid="{49CF8178-EFA8-9643-BFB1-A8E39845DF37}"/>
   </bookViews>
@@ -640,19 +640,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>犬隻服用人類認知增強藥物（如前驅膽鹼類、抗氧化劑等）已被證實能完全逆轉老犬的 CCD 症狀。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>認知增強藥物、前驅膽鹼、完全逆轉、臨床效果有限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>針對犬隻失智 (CCD) 的診斷，單靠 MRI 或 CT 等影像學觀察大腦萎縮或斑塊沉積，即可準確區分 CCD 與其他神經退化疾病。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>影像學輔助、MRI、CT、無法百分百區分、臨床量表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>犬隻服用人類認知增強藥物（如前驅膽鹼類、抗氧化劑等）已被證實能完全逆轉老犬的 CCD 症狀，正確嗎。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>針對犬隻失智 (CCD) 的診斷，是否可以單靠 MRI 或 CT 等影像學觀察大腦萎縮或斑塊沉積，即可準確區分 CCD 與其他神經退化疾病。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1123,8 +1123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27A6E25-28F7-6A43-9063-8BB9C579CCE6}">
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19"/>
@@ -2136,6 +2136,9 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="140">
+      <c r="A51" s="4">
+        <v>51</v>
+      </c>
       <c r="B51" s="5" t="s">
         <v>46</v>
       </c>
@@ -2153,6 +2156,9 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="120">
+      <c r="A52" s="4">
+        <v>52</v>
+      </c>
       <c r="B52" s="5" t="s">
         <v>46</v>
       </c>
@@ -2170,6 +2176,9 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="140">
+      <c r="A53" s="4">
+        <v>53</v>
+      </c>
       <c r="B53" s="5" t="s">
         <v>46</v>
       </c>
@@ -2187,6 +2196,9 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="140">
+      <c r="A54" s="4">
+        <v>54</v>
+      </c>
       <c r="B54" s="5" t="s">
         <v>46</v>
       </c>
@@ -2204,82 +2216,112 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="60">
+      <c r="A55" s="4">
+        <v>55</v>
+      </c>
       <c r="B55" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D55" s="15" t="b">
         <v>0</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="60">
+      <c r="A56" s="4">
+        <v>56</v>
+      </c>
       <c r="B56" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D56" s="15" t="b">
         <v>0</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:6">
+      <c r="A57" s="4">
+        <v>57</v>
+      </c>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="15"/>
       <c r="E57" s="1"/>
     </row>
     <row r="58" spans="1:6">
+      <c r="A58" s="4">
+        <v>58</v>
+      </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="15"/>
       <c r="E58" s="1"/>
     </row>
     <row r="59" spans="1:6">
+      <c r="A59" s="4">
+        <v>59</v>
+      </c>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="15"/>
       <c r="E59" s="1"/>
     </row>
     <row r="60" spans="1:6">
+      <c r="A60" s="4">
+        <v>60</v>
+      </c>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="15"/>
       <c r="E60" s="1"/>
     </row>
     <row r="61" spans="1:6">
+      <c r="A61" s="4">
+        <v>61</v>
+      </c>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="15"/>
       <c r="E61" s="1"/>
     </row>
     <row r="62" spans="1:6">
+      <c r="A62" s="4">
+        <v>62</v>
+      </c>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="15"/>
       <c r="E62" s="1"/>
     </row>
     <row r="63" spans="1:6">
+      <c r="A63" s="4">
+        <v>63</v>
+      </c>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="15"/>
       <c r="E63" s="1"/>
     </row>
     <row r="64" spans="1:6">
+      <c r="A64" s="4">
+        <v>64</v>
+      </c>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="15"/>

--- a/test_questions.xlsx
+++ b/test_questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zirong/Desktop/CCD_RAG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5641E6C-D5F5-8149-8EA7-1F468B156A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49FFCD62-EBC6-7D4E-987E-FC4C18007F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4060" yWindow="740" windowWidth="19680" windowHeight="17100" xr2:uid="{49CF8178-EFA8-9643-BFB1-A8E39845DF37}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="129">
   <si>
     <t>我的臘腸狗已經 13 歲，最近總是在半夜突然狂吠，轉圈找不到床，還弄得全家都睡不著。白天牠又一直昏睡、反應遲鈍。我懷疑可能是 CCD，但不確定要怎麼做？請問如何判斷是不是失智，還有夜間吠叫該怎麼安撫或調整作息？</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,17 +146,6 @@
   </si>
   <si>
     <t>大中小型狗的失智照顧方式有什麼不同？</t>
-  </si>
-  <si>
-    <t>問答</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是非</t>
-  </si>
-  <si>
-    <t>是非</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>發炎反應 (pro-inflammatory cytokines) 升高，可能加速神經退化。神經遞質 (serotonin, GABA) 與免疫調控 (短鏈脂肪酸, SCFAs) 的影響。腸道微生物與中樞神經系統之間的交互作用。</t>
@@ -242,9 +231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>選擇</t>
-  </si>
-  <si>
     <t>照護</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -653,6 +639,27 @@
   </si>
   <si>
     <t>針對犬隻失智 (CCD) 的診斷，是否可以單靠 MRI 或 CT 等影像學觀察大腦萎縮或斑塊沉積，即可準確區分 CCD 與其他神經退化疾病。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qa</t>
+  </si>
+  <si>
+    <t>true_false</t>
+  </si>
+  <si>
+    <t>multiple_choice</t>
+  </si>
+  <si>
+    <t>multiple_choice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true_false</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1123,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27A6E25-28F7-6A43-9063-8BB9C579CCE6}">
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19"/>
@@ -1139,19 +1146,19 @@
   <sheetData>
     <row r="1" spans="1:6" s="10" customFormat="1">
       <c r="A1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>5</v>
@@ -1162,7 +1169,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>0</v>
@@ -1182,7 +1189,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>1</v>
@@ -1202,16 +1209,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>7</v>
@@ -1222,16 +1229,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>7</v>
@@ -1242,16 +1249,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>7</v>
@@ -1262,7 +1269,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>4</v>
@@ -1271,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>8</v>
@@ -1282,7 +1289,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>6</v>
@@ -1291,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>8</v>
@@ -1302,7 +1309,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>9</v>
@@ -1311,7 +1318,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>8</v>
@@ -1322,7 +1329,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>11</v>
@@ -1342,7 +1349,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>14</v>
@@ -1354,7 +1361,7 @@
         <v>15</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="32">
@@ -1362,7 +1369,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>16</v>
@@ -1382,7 +1389,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>18</v>
@@ -1391,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>8</v>
@@ -1402,16 +1409,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D14" s="11" t="b">
         <v>0</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>8</v>
@@ -1422,7 +1429,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>19</v>
@@ -1431,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F15" s="5" t="s">
         <v>8</v>
@@ -1442,7 +1449,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>20</v>
@@ -1454,7 +1461,7 @@
         <v>21</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="32">
@@ -1462,7 +1469,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>22</v>
@@ -1471,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F17" s="5" t="s">
         <v>8</v>
@@ -1482,7 +1489,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>23</v>
@@ -1500,19 +1507,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="320">
@@ -1520,19 +1527,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="144">
@@ -1540,19 +1547,19 @@
         <v>21</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>26</v>
       </c>
       <c r="D21" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="272">
@@ -1560,19 +1567,19 @@
         <v>22</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="272">
@@ -1580,19 +1587,19 @@
         <v>23</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="96">
@@ -1600,19 +1607,19 @@
         <v>24</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="F24" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="96">
@@ -1620,19 +1627,19 @@
         <v>25</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="96">
@@ -1640,19 +1647,19 @@
         <v>26</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="96">
@@ -1660,19 +1667,19 @@
         <v>27</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="96">
@@ -1680,19 +1687,19 @@
         <v>28</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="112">
@@ -1700,19 +1707,19 @@
         <v>29</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="96">
@@ -1720,19 +1727,19 @@
         <v>30</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="96">
@@ -1740,19 +1747,19 @@
         <v>31</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="96">
@@ -1760,19 +1767,19 @@
         <v>32</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="96">
@@ -1780,19 +1787,19 @@
         <v>33</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="96">
@@ -1800,19 +1807,19 @@
         <v>34</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="96">
@@ -1820,19 +1827,19 @@
         <v>35</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="96">
@@ -1840,19 +1847,19 @@
         <v>36</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="96">
@@ -1860,19 +1867,19 @@
         <v>37</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="96">
@@ -1880,19 +1887,19 @@
         <v>38</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="48">
@@ -1900,19 +1907,19 @@
         <v>39</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D39" s="11" t="b">
         <v>1</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="32">
@@ -1920,19 +1927,19 @@
         <v>40</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D40" s="11" t="b">
         <v>0</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="48">
@@ -1940,19 +1947,19 @@
         <v>41</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D41" s="11" t="b">
         <v>1</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="48">
@@ -1960,19 +1967,19 @@
         <v>42</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D42" s="11" t="b">
         <v>0</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="32">
@@ -1980,19 +1987,19 @@
         <v>43</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D43" s="11" t="b">
         <v>1</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="48">
@@ -2000,19 +2007,19 @@
         <v>44</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D44" s="11" t="b">
         <v>0</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="32">
@@ -2020,19 +2027,19 @@
         <v>45</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D45" s="11" t="b">
         <v>1</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="32">
@@ -2040,19 +2047,19 @@
         <v>46</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D46" s="11" t="b">
         <v>0</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="32">
@@ -2060,19 +2067,19 @@
         <v>47</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D47" s="11" t="b">
         <v>0</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="32">
@@ -2080,19 +2087,19 @@
         <v>48</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D48" s="11" t="b">
         <v>0</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="32">
@@ -2100,19 +2107,19 @@
         <v>49</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D49" s="11" t="b">
         <v>1</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="48">
@@ -2120,19 +2127,19 @@
         <v>50</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>28</v>
+        <v>123</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="140">
@@ -2140,16 +2147,16 @@
         <v>51</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>8</v>
@@ -2160,16 +2167,16 @@
         <v>52</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>46</v>
+        <v>126</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>8</v>
@@ -2180,16 +2187,16 @@
         <v>53</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E53" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>8</v>
@@ -2200,16 +2207,16 @@
         <v>54</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>46</v>
+        <v>125</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>8</v>
@@ -2220,16 +2227,16 @@
         <v>55</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D55" s="15" t="b">
         <v>0</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>8</v>
@@ -2240,16 +2247,16 @@
         <v>56</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>30</v>
+        <v>124</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D56" s="15" t="b">
         <v>0</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>8</v>

--- a/test_questions.xlsx
+++ b/test_questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zirong/Desktop/CCD_RAG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96789AAF-E3D8-1547-BE52-7910281267F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC439F1-CC77-0E44-B4CB-8CFB82AA7DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6720" yWindow="-21100" windowWidth="38400" windowHeight="21100" xr2:uid="{49CF8178-EFA8-9643-BFB1-A8E39845DF37}"/>
+    <workbookView xWindow="9040" yWindow="860" windowWidth="19560" windowHeight="16960" xr2:uid="{49CF8178-EFA8-9643-BFB1-A8E39845DF37}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="195">
   <si>
     <t>我的臘腸狗已經 13 歲，最近總是在半夜突然狂吠，轉圈找不到床，還弄得全家都睡不著。白天牠又一直昏睡、反應遲鈍。我懷疑可能是 CCD，但不確定要怎麼做？請問如何判斷是不是失智，還有夜間吠叫該怎麼安撫或調整作息？</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,10 +62,6 @@
   </si>
   <si>
     <t>情境</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>醫療</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -195,9 +191,6 @@
     <t>犬認知障礙症候群的表現,這個狀況有點像狗狗的阿茲海默症,常見於老年犬,可能會伴隨認知缺失產生焦慮以及陌生感,若想恢復社交行為,要從牠覺得安全的距離慢慢來，尊重牠的節奏，不強求互動</t>
   </si>
   <si>
-    <t>醫療</t>
-  </si>
-  <si>
     <t>減少居家空間的縫隙以及桌角等家具銳面設置安全防撞泡棉,嚴重情況可以透過限縮活動範圍以降低受傷風險及增加狗狗的安全感（key：  Thigmotaxis）</t>
   </si>
   <si>
@@ -575,30 +568,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>下列哪一項研究發現與犬隻失智 (CCD) 病理最相關，並常被拿來比照人類阿茲海默症的核心變化？
-A. 體重指數 (Body Condition Score)
-B. β-amyloid 蛋白沉積
-C. 高血糖指數 (Hyperglycemia)
-D. 肝臟酵素升高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>β-amyloid、阿茲海默症類似病理、蛋白沉積、神經退行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在評估犬隻 CCD 的臨床症狀時，下列哪一項行為面向最常被列為主要觀察指標之一？
-A. 毛色是否變白
-B. 飲水量的增加
-C. 定向能力 (Orientation) 與空間辨識度
-D. 心跳與呼吸速率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>定向能力、空間辨識、行為量表、臨床症狀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>依據關於老犬腸—腦軸 (Gut-Brain Axis) 的研究，下列哪種方法可能有助於改善老犬在認知功能退化上的風險？
 A. 不斷嘗試高強度競賽
 B. 採用單一蛋白質來源的快速減肥配方
@@ -1480,6 +1449,10 @@
       </rPr>
       <t>B. 0.5 寸 C. 1 寸  D. 1.5 寸</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1591,47 +1564,44 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1968,15 +1938,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27A6E25-28F7-6A43-9063-8BB9C579CCE6}">
-  <dimension ref="A1:F120"/>
+  <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="132" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C86" sqref="C86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="11" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="3" customWidth="1"/>
     <col min="3" max="3" width="80" style="3" customWidth="1"/>
     <col min="4" max="4" width="49.33203125" style="9" customWidth="1"/>
@@ -1986,22 +1956,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="48">
@@ -2009,16 +1979,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>6</v>
@@ -2029,16 +1999,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>6</v>
@@ -2049,16 +2019,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>6</v>
@@ -2069,16 +2039,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>6</v>
@@ -2089,16 +2059,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>6</v>
@@ -2109,7 +2079,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>4</v>
@@ -2118,10 +2088,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>7</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="48">
@@ -2129,7 +2099,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>5</v>
@@ -2138,10 +2108,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>7</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="32">
@@ -2149,19 +2119,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>7</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="32">
@@ -2169,19 +2139,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>7</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="32">
@@ -2189,19 +2159,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="E11" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>42</v>
+        <v>194</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="32">
@@ -2209,19 +2179,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="E12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>7</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="32">
@@ -2229,19 +2199,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>7</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="80">
@@ -2249,19 +2219,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D14" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>7</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="32">
@@ -2269,19 +2239,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>7</v>
+        <v>194</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="48">
@@ -2289,19 +2259,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E16" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>42</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2309,19 +2279,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>7</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2329,17 +2299,17 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D18" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="s">
-        <v>7</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="64">
@@ -2347,19 +2317,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="320">
@@ -2367,19 +2337,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>33</v>
+        <v>27</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="144">
@@ -2387,19 +2357,19 @@
         <v>21</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="272">
@@ -2407,19 +2377,19 @@
         <v>22</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="272">
@@ -2427,19 +2397,19 @@
         <v>23</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>33</v>
+        <v>88</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="80">
@@ -2447,19 +2417,19 @@
         <v>24</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="F24" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="80">
@@ -2467,19 +2437,19 @@
         <v>25</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="F25" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="80">
@@ -2487,19 +2457,19 @@
         <v>26</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="80">
@@ -2507,19 +2477,19 @@
         <v>27</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="80">
@@ -2527,19 +2497,19 @@
         <v>28</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="96">
@@ -2547,19 +2517,19 @@
         <v>29</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="80">
@@ -2567,19 +2537,19 @@
         <v>30</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="80">
@@ -2587,19 +2557,19 @@
         <v>31</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="80">
@@ -2607,19 +2577,19 @@
         <v>32</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="80">
@@ -2627,19 +2597,19 @@
         <v>33</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="80">
@@ -2647,19 +2617,19 @@
         <v>34</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>33</v>
+        <v>64</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="80">
@@ -2667,19 +2637,19 @@
         <v>35</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>33</v>
+        <v>66</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="80">
@@ -2687,19 +2657,19 @@
         <v>36</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>33</v>
+        <v>67</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="80">
@@ -2707,19 +2677,19 @@
         <v>37</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>33</v>
+        <v>70</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="80">
@@ -2727,19 +2697,19 @@
         <v>38</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>33</v>
+        <v>72</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="32">
@@ -2747,19 +2717,19 @@
         <v>39</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D39" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2767,19 +2737,19 @@
         <v>40</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D40" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="48">
@@ -2787,19 +2757,19 @@
         <v>41</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D41" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="32">
@@ -2807,19 +2777,19 @@
         <v>42</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D42" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2827,19 +2797,19 @@
         <v>43</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D43" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="32">
@@ -2847,19 +2817,19 @@
         <v>44</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D44" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2867,19 +2837,19 @@
         <v>45</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D45" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2887,19 +2857,19 @@
         <v>46</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D46" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2907,19 +2877,19 @@
         <v>47</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D47" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2927,19 +2897,19 @@
         <v>48</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D48" s="2" t="b">
         <v>0</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2947,19 +2917,19 @@
         <v>49</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D49" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="48">
@@ -2967,1227 +2937,1187 @@
         <v>50</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C50" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="F50" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="120">
       <c r="A51" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C51" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E51" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="120">
+      <c r="A52" s="1">
+        <v>54</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D51" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E51" s="3" t="s">
+      <c r="D52" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="100">
-      <c r="A52" s="1">
-        <v>52</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="120">
+      <c r="F52" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="40">
       <c r="A53" s="1">
-        <v>53</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>124</v>
+        <v>55</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D53" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E53" s="10" t="s">
+      <c r="D53" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="40">
+      <c r="A54" s="1">
+        <v>56</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F53" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="120">
-      <c r="A54" s="1">
-        <v>54</v>
-      </c>
-      <c r="B54" s="4" t="s">
+      <c r="D54" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="38">
+      <c r="A55" s="1">
+        <v>57</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="D55" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="100">
+      <c r="A56" s="1">
+        <v>58</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C54" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="40">
-      <c r="A55" s="1">
-        <v>55</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D55" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="40">
-      <c r="A56" s="1">
-        <v>56</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D56" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="F56" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="38">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="40">
       <c r="A57" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>198</v>
+        <v>117</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>125</v>
       </c>
       <c r="D57" s="9" t="b">
         <v>1</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="100">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="40">
       <c r="A58" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="40">
       <c r="A59" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D59" s="9" t="b">
         <v>1</v>
       </c>
       <c r="F59" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="32">
+      <c r="A60" s="1">
+        <v>62</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="20">
+      <c r="A61" s="1">
+        <v>64</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D61" s="9" t="b">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="40">
+      <c r="A62" s="1">
+        <v>65</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="40">
+      <c r="A63" s="1">
+        <v>66</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" ht="40">
-      <c r="A60" s="1">
-        <v>60</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="40">
-      <c r="A61" s="1">
-        <v>61</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C61" s="3" t="s">
+      <c r="D63" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="D61" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="32">
-      <c r="A62" s="1">
-        <v>62</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="20">
-      <c r="A63" s="1">
-        <v>64</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D63" s="9" t="b">
-        <v>0</v>
-      </c>
       <c r="F63" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="40">
       <c r="A64" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>199</v>
+        <v>133</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>138</v>
+        <v>42</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="40">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="20">
       <c r="A65" s="1">
-        <v>66</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>124</v>
+        <v>68</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>138</v>
+        <v>129</v>
+      </c>
+      <c r="D65" s="9" t="b">
+        <v>1</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="40">
       <c r="A66" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D66" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C66" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>44</v>
-      </c>
       <c r="F66" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="20">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="40">
       <c r="A67" s="1">
-        <v>68</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>123</v>
+        <v>70</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D67" s="9" t="b">
-        <v>1</v>
+        <v>131</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>132</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="40">
       <c r="A68" s="1">
-        <v>69</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>124</v>
+        <v>71</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>130</v>
+        <v>150</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="40">
       <c r="A69" s="1">
-        <v>70</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>124</v>
+        <v>72</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>118</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="40">
       <c r="A70" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="40">
       <c r="A71" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="40">
       <c r="A72" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="40">
       <c r="A73" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="40">
       <c r="A74" s="1">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="40">
       <c r="A75" s="1">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="40">
       <c r="A76" s="1">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="40">
       <c r="A77" s="1">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="40">
       <c r="A78" s="1">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="40">
       <c r="A79" s="1">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="40">
       <c r="A80" s="1">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="40">
       <c r="A81" s="1">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="40">
       <c r="A82" s="1">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="40">
       <c r="A83" s="1">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="40">
       <c r="A84" s="1">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="40">
       <c r="A85" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="40">
       <c r="A86" s="1">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="40">
       <c r="A87" s="1">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="40">
       <c r="A88" s="1">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="40">
       <c r="A89" s="1">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="40">
       <c r="A90" s="1">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="40">
       <c r="A91" s="1">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="40">
       <c r="A92" s="1">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="40">
       <c r="A93" s="1">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="40">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="20">
       <c r="A94" s="1">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D94" s="9" t="s">
-        <v>161</v>
+        <v>137</v>
+      </c>
+      <c r="D94" s="9" t="b">
+        <v>1</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="40">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="20">
       <c r="A95" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D95" s="9" t="s">
-        <v>156</v>
+        <v>138</v>
+      </c>
+      <c r="D95" s="9" t="b">
+        <v>0</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="20">
       <c r="A96" s="1">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D96" s="9" t="b">
         <v>1</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="20">
       <c r="A97" s="1">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D97" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="20">
       <c r="A98" s="1">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D98" s="9" t="b">
         <v>1</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="20">
       <c r="A99" s="1">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D99" s="9" t="b">
         <v>1</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="20">
       <c r="A100" s="1">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D100" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="20">
       <c r="A101" s="1">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D101" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="20">
       <c r="A102" s="1">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D102" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="20">
       <c r="A103" s="1">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D103" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="20">
       <c r="A104" s="1">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D104" s="9" t="b">
         <v>1</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="20">
       <c r="A105" s="1">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D105" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="20">
       <c r="A106" s="1">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="D106" s="9" t="b">
         <v>1</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="20">
       <c r="A107" s="1">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="D107" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="20">
       <c r="A108" s="1">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D108" s="9" t="b">
         <v>1</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="20">
       <c r="A109" s="1">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D109" s="9" t="b">
         <v>1</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="20">
       <c r="A110" s="1">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D110" s="9" t="b">
         <v>1</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="20">
       <c r="A111" s="1">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D111" s="9" t="b">
         <v>1</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="20">
       <c r="A112" s="1">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="D112" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="20">
       <c r="A113" s="1">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D113" s="9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="20">
       <c r="A114" s="1">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="D114" s="9" t="b">
         <v>0</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="20">
       <c r="A115" s="1">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D115" s="9" t="b">
         <v>0</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="20">
       <c r="A116" s="1">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D116" s="9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="20">
       <c r="A117" s="1">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D117" s="9" t="b">
         <v>0</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="20">
       <c r="A118" s="1">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D118" s="9" t="b">
         <v>1</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" ht="20">
-      <c r="A119" s="1">
-        <v>120</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D119" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" ht="20">
-      <c r="A120" s="1">
-        <v>121</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="D120" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/test_questions.xlsx
+++ b/test_questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zirong/Desktop/CCD_RAG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC439F1-CC77-0E44-B4CB-8CFB82AA7DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC8B9CE-E0E5-4F4D-9917-74FE70D66C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9040" yWindow="860" windowWidth="19560" windowHeight="16960" xr2:uid="{49CF8178-EFA8-9643-BFB1-A8E39845DF37}"/>
+    <workbookView xWindow="6380" yWindow="-19880" windowWidth="24940" windowHeight="16960" xr2:uid="{49CF8178-EFA8-9643-BFB1-A8E39845DF37}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="155">
   <si>
     <t>我的臘腸狗已經 13 歲，最近總是在半夜突然狂吠，轉圈找不到床，還弄得全家都睡不著。白天牠又一直昏睡、反應遲鈍。我懷疑可能是 CCD，但不確定要怎麼做？請問如何判斷是不是失智，還有夜間吠叫該怎麼安撫或調整作息？</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,10 +74,6 @@
   </si>
   <si>
     <t>B 群維生素是否能降低 CCD 進展風險？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B 群在神經健康維持上的作用、研究對 B 群補充與認知功能衰退的關聯、實際劑量與臨床實證可引用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -216,10 +212,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>keywords</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>照護</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -236,10 +228,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>夜間焦躁、穩定環境、光線調整、行為介入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在照顧失智犬時，若發現牠對日常指令反應變慢，下列哪種訓練原則較合適？
 A. 加大音量不斷重複指令
 B. 利用簡短口令並搭配手勢或嗅聞提示
@@ -252,10 +240,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>簡短口令、視覺/嗅覺提示、指令調整、行為訓練</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>如果高齡犬經常在家裡亂撞傢俱，可能和下列哪種現象最相關？
 A. 單純故意搗蛋
 B. Thigmotaxis 或定向障礙
@@ -264,10 +248,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>亂撞傢俱、Thigmotaxis、定向障礙、空間認知</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>老年犬食慾下降時，下列哪個建議最符合改善策略？
 A. 馬上更換飼料品牌且一次大量添購
 B. 在飼料中加入濃味香辛料刺激食慾
@@ -276,10 +256,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>食慾改善、溫度/香氣、老犬飼餵、香辛料風險</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>想為失智犬提供認知刺激，下列哪種活動較為合適？
 A. 高強度障礙賽
 B. 短程嗅聞尋找遊戲
@@ -288,10 +264,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>認知刺激、嗅聞遊戲、低強度活動、老犬運動</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>若在照顧過程中，老犬出現白天過度沉睡、夜間不安，下列哪種日常排程較能幫助調整牠的生理時鐘？
 A. 白天保持安靜，不要打擾牠
 B. 白天適度互動與散步，夜間營造安靜燈光環境
@@ -300,10 +272,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生理時鐘、日夜節律、適度互動、安靜燈光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>當犬隻顯現社交退縮、不想與主人或其他動物互動，下列哪項作法最不建議？
 A. 建立安全區域，給予牠主動選擇互動的空間
 B. 強迫牠與其他動物一起待在狹小籠子
@@ -312,10 +280,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>社交退縮、強迫互動、身體不適、安全區域</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>若狗狗老化後，對於原本熟悉的家中樓梯顯得恐懼，下列哪種協助方式較適宜？
 A. 馬上拆除樓梯
 B. 讓牠自己多摔幾次就習慣
@@ -324,10 +288,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>樓梯恐懼、防滑地墊、安全柵欄、牽繩引導</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>對老年犬的居家空間規劃，下列何者較能減少牠碰撞或迷路？
 A. 家具經常大幅度移動
 B. 在地面放大量雜物，增加刺激
@@ -336,10 +296,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>空間動線、小夜燈、路徑指示、環境安全</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>想觀察老犬是否有 CCD 初期症狀，下列哪種行為跡象最能代表可能的認知改變？
 A. 偶爾打瞌睡
 B. 短暫呆站
@@ -348,10 +304,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CCD 初期、定向困難、迷路、行為跡象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>下列何者不是犬隻認知功能障礙 (CCD) 常見的主要症狀？
 A. 睡眠—覺醒週期顛倒
 B. 嚴重口腔潰瘍
@@ -360,9 +312,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CCD 症狀、睡眠顛倒、定向障礙、社交退縮</t>
-  </si>
-  <si>
     <t>關於犬隻神經退行性變化，下列哪一項病理機制與人類阿茲海默症最相近？
 A. 闌尾炎
 B. β-amyloid 沉積與神經炎症
@@ -371,14 +320,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>神經退行、β-amyloid、神經炎症、阿茲海默</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影像診斷、MRI、大腦萎縮、CCD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>對於犬腦部影像學診斷 CCD，下列哪種工具最常用於檢測大腦萎縮或病灶？
 A. PET (正子掃描)
 B. MRI (核磁共振)
@@ -395,10 +336,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>腸道菌群、腸—腦軸、認知健康、Gut-Brain Axis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>老年犬 CCD 行為評估量表通常會衡量下列哪些面向？
 A. 體色變化和毛量
 B. 性別和體重
@@ -407,59 +344,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CCD 行為量表、定向力、互動意願、睡眠模式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夜間焦躁、淡光夜燈、熟悉物品、安全感</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如廁混亂、排除其他病因、確診依據、CCD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刻板繞圈、焦慮、神經退化、行為檢查</t>
-  </si>
-  <si>
-    <t>定向障礙、環境穩定、認知刺激、大幅更動</t>
-  </si>
-  <si>
-    <t>失智犬、嗅聞遊戲、身心機能、焦慮舒緩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻擊行為、疼痛評估、認知衰退、藥物鎮靜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>溫度感知、老犬生理、夜間休息、老化變化</t>
-  </si>
-  <si>
-    <t>失智犬、社交互動、外出需求、隔離風險</t>
-  </si>
-  <si>
-    <t>NLRP3、腦部炎症、犬失智、發炎因子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行為問卷、CCD 診斷、MRI、臨床評估</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抗氧化劑、神經保護劑、結合療法、認知衰退</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>老年犬突然不願意踏進以前常去的角落，且容易在牆邊繞圈，飼主可以怎麼改善這種「邊緣行走 」現象？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>可嘗試將動線障礙物清除、增添環境中明顯標記物（如小夜燈），並適度進行簡單的室內誘導活動，減少不安感；若情況嚴重，應排除視力/聽力問題。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thigmotaxis、環境標記、動線調整、視力問題</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -478,48 +367,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-Selegiline (MAO-B inhibitor)、NMDA受體拮抗劑、Cholinesterase 抑制劑
-抗氧化劑 (維生素E、CoQ10)、Omega-3脂肪酸等，減少自由基對神經細胞的損傷。
-免疫調控 / 抗發炎
-針對 NLRP3 inflammasome 或特定 cytokines 的抑制劑研究中。
-臨床實驗有限，尚未有廣泛認可的標準療法。
-未來挑戰
-長期安全性與副作用資料不足。
-大樣本臨床試驗相對缺乏。
-需整合行為管理與營養介入，單靠藥物不一定能完全控制 CCD 進程。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神經炎症、皮質醇偏高</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NLRP3 炎症小體如何參與炎症反應、主要細胞因子：IL-1β、TNF-α 等、提到 CCD 早期炎症在分子層面的機制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腸道菌群—腦軸(Gut-Brain Axis)的關聯、常見與神經退化風險相關的菌群 (如 Lactobacillus, Bifidobacterium 變化)、需補充臨床研究證據</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>松果體機能與老年犬睡眠週期紊亂、減少褪黑激素分泌可能導致夜間焦躁與睡眠問題</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GABA對神經傳導抑制與放鬆效果、目前研究證據是否充分、可能無法替代醫療，但有輔助作用、證據尚不足</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>警犬、救難犬等工作犬在罹患CCD的機率是否比家庭陪伴犬較高？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有研究指出高壓力、長工時對認知退化影響、也可能因訓練較多而延緩退化、需參考實際數據、有些研究認為長時間高壓力可能增進退化風險，但也有觀點認為「工作犬的持續訓練」反而能刺激認知、延緩退化；尚未有明確結論，因此無法簡單斷定「罹患率更高」為真。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MRI、CT對腦部萎縮或斑塊沉積的檢測、其優勢與局限性：費用、儀器可及性、證據不足</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -576,9 +424,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>腸—腦軸、益生菌、腸道微生物群、認知功能</t>
-  </si>
-  <si>
     <t>文獻中提到犬隻認知功能障礙 (CCD) 與中樞神經免疫反應的關聯，下列哪種細胞或炎症小體常被視作潛在研究重點？
 A. Osteoclast 骨細胞
 B. Microglia 與 NLRP3 inflammasome
@@ -587,18 +432,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Microglia、NLRP3 inflammasome、神經發炎、CCD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>認知增強藥物、前驅膽鹼、完全逆轉、臨床效果有限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>影像學輔助、MRI、CT、無法百分百區分、臨床量表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>犬隻服用人類認知增強藥物（如前驅膽鹼類、抗氧化劑等）已被證實能完全逆轉老犬的 CCD 症狀，正確嗎。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1453,6 +1286,10 @@
   </si>
   <si>
     <t>CCD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>actor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1564,7 +1401,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1583,14 +1420,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1938,2186 +1769,2195 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27A6E25-28F7-6A43-9063-8BB9C579CCE6}">
-  <dimension ref="A1:F118"/>
+  <dimension ref="A1:G118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C86" sqref="C86"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="19"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="80" style="3" customWidth="1"/>
-    <col min="4" max="4" width="49.33203125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="49.33203125" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="2" width="5.1640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="59.33203125" style="3" customWidth="1"/>
+    <col min="5" max="6" width="55.5" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="48">
+      <c r="F1" s="2"/>
+      <c r="G1" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="64">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="B2" s="1"/>
       <c r="C2" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="48">
+    <row r="3" spans="1:7" ht="64">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="B3" s="1"/>
       <c r="C3" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="48">
+    <row r="4" spans="1:7" ht="48">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="64">
+    <row r="5" spans="1:7" ht="64">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="64">
+    <row r="6" spans="1:7" ht="80">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5"/>
+      <c r="G6" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="48">
+    <row r="7" spans="1:7" ht="32">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>120</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="2" t="b">
+      <c r="E7" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="48">
+      <c r="F7" s="2"/>
+      <c r="G7" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="32">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>117</v>
-      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="2" t="b">
+      <c r="E8" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="32">
+      <c r="F8" s="2"/>
+      <c r="G8" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>117</v>
-      </c>
+      <c r="B9" s="1"/>
       <c r="C9" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="2" t="b">
+      <c r="E9" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="32">
+      <c r="F9" s="2"/>
+      <c r="G9" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>117</v>
-      </c>
+      <c r="B10" s="1"/>
       <c r="C10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="2" t="b">
+      <c r="E10" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="32">
+      <c r="F10" s="2"/>
+      <c r="G10" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="32">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="B11" s="1"/>
       <c r="C11" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="32">
+      <c r="F11" s="2"/>
+      <c r="G11" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="32">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="32">
+      <c r="F12" s="2"/>
+      <c r="G12" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>117</v>
-      </c>
+      <c r="B13" s="1"/>
       <c r="C13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="2" t="b">
+        <v>76</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="80">
+      <c r="F13" s="2"/>
+      <c r="G13" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>117</v>
-      </c>
+      <c r="B14" s="1"/>
       <c r="C14" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="2" t="b">
+        <v>76</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="32">
+      <c r="F14" s="2"/>
+      <c r="G14" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>117</v>
-      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="2" t="b">
+        <v>76</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="48">
+      <c r="F15" s="2"/>
+      <c r="G15" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="48">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="B16" s="1"/>
       <c r="C16" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="F16" s="2"/>
+      <c r="G16" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="32">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="2" t="b">
+      <c r="B17" s="1"/>
+      <c r="C17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="F17" s="2"/>
+      <c r="G17" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="2" t="b">
+      <c r="B18" s="1"/>
+      <c r="C18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="64">
+      <c r="F18" s="2"/>
+      <c r="G18" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="64">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="B19" s="1"/>
       <c r="C19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="320">
+        <v>75</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="304">
       <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="144">
+      <c r="B20" s="1"/>
+      <c r="C20" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="112">
       <c r="A21" s="1">
         <v>21</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="272">
+      <c r="B21" s="1"/>
+      <c r="C21" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="256">
       <c r="A22" s="1">
         <v>22</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="272">
+      <c r="B22" s="1"/>
+      <c r="C22" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="272">
       <c r="A23" s="1">
         <v>23</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="80">
+      <c r="B23" s="1"/>
+      <c r="C23" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="80">
       <c r="A24" s="1">
         <v>24</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>118</v>
-      </c>
+      <c r="B24" s="1"/>
       <c r="C24" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="80">
+      <c r="F24" s="2"/>
+      <c r="G24" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="96">
       <c r="A25" s="1">
         <v>25</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>118</v>
-      </c>
+      <c r="B25" s="1"/>
       <c r="C25" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="80">
+        <v>78</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="80">
       <c r="A26" s="1">
         <v>26</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>118</v>
-      </c>
+      <c r="B26" s="1"/>
       <c r="C26" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="80">
+        <v>77</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="80">
       <c r="A27" s="1">
         <v>27</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>118</v>
-      </c>
+      <c r="B27" s="1"/>
       <c r="C27" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="80">
+      <c r="F27" s="2"/>
+      <c r="G27" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="80">
       <c r="A28" s="1">
         <v>28</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>118</v>
-      </c>
+      <c r="B28" s="1"/>
       <c r="C28" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="96">
+      <c r="E28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="96">
       <c r="A29" s="1">
         <v>29</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>119</v>
-      </c>
+      <c r="B29" s="1"/>
       <c r="C29" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="80">
+        <v>78</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="96">
       <c r="A30" s="1">
         <v>30</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>118</v>
-      </c>
+      <c r="B30" s="1"/>
       <c r="C30" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="80">
+        <v>77</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="96">
       <c r="A31" s="1">
         <v>31</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>118</v>
-      </c>
+      <c r="B31" s="1"/>
       <c r="C31" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="F31" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" ht="80">
+      <c r="F31" s="2"/>
+      <c r="G31" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="80">
       <c r="A32" s="1">
         <v>32</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>118</v>
-      </c>
+      <c r="B32" s="1"/>
       <c r="C32" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="F32" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="80">
+      <c r="F32" s="2"/>
+      <c r="G32" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="96">
       <c r="A33" s="1">
         <v>33</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>118</v>
-      </c>
+      <c r="B33" s="1"/>
       <c r="C33" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" ht="80">
+      <c r="F33" s="2"/>
+      <c r="G33" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="80">
       <c r="A34" s="1">
         <v>34</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>118</v>
-      </c>
+      <c r="B34" s="1"/>
       <c r="C34" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="80">
+        <v>77</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="96">
       <c r="A35" s="1">
         <v>35</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>118</v>
-      </c>
+      <c r="B35" s="1"/>
       <c r="C35" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="80">
+        <v>77</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="96">
       <c r="A36" s="1">
         <v>36</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>118</v>
-      </c>
+      <c r="B36" s="1"/>
       <c r="C36" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="80">
+        <v>77</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="96">
       <c r="A37" s="1">
         <v>37</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>118</v>
-      </c>
+      <c r="B37" s="1"/>
       <c r="C37" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="80">
+        <v>77</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="80">
       <c r="A38" s="1">
         <v>38</v>
       </c>
-      <c r="B38" s="4" t="s">
-        <v>118</v>
-      </c>
+      <c r="B38" s="1"/>
       <c r="C38" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="32">
+        <v>77</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="32">
       <c r="A39" s="1">
         <v>39</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>117</v>
-      </c>
+      <c r="B39" s="1"/>
       <c r="C39" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="D39" s="2" t="b">
+        <v>76</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="F39" s="2"/>
+      <c r="G39" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="32">
       <c r="A40" s="1">
         <v>40</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>117</v>
-      </c>
+      <c r="B40" s="1"/>
       <c r="C40" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D40" s="2" t="b">
+        <v>76</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="48">
+      <c r="F40" s="2"/>
+      <c r="G40" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="48">
       <c r="A41" s="1">
         <v>41</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>117</v>
-      </c>
+      <c r="B41" s="1"/>
       <c r="C41" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D41" s="2" t="b">
+        <v>76</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E41" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="32">
+      <c r="F41" s="2"/>
+      <c r="G41" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="32">
       <c r="A42" s="1">
         <v>42</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>117</v>
-      </c>
+      <c r="B42" s="1"/>
       <c r="C42" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D42" s="2" t="b">
+        <v>76</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E42" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="F42" s="2"/>
+      <c r="G42" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="32">
       <c r="A43" s="1">
         <v>43</v>
       </c>
-      <c r="B43" s="4" t="s">
-        <v>117</v>
-      </c>
+      <c r="B43" s="1"/>
       <c r="C43" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D43" s="2" t="b">
+        <v>76</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E43" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="32">
+      <c r="F43" s="2"/>
+      <c r="G43" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="32">
       <c r="A44" s="1">
         <v>44</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>117</v>
-      </c>
+      <c r="B44" s="1"/>
       <c r="C44" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D44" s="2" t="b">
+        <v>76</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="F44" s="2"/>
+      <c r="G44" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="32">
       <c r="A45" s="1">
         <v>45</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>117</v>
-      </c>
+      <c r="B45" s="1"/>
       <c r="C45" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="D45" s="2" t="b">
+        <v>76</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E45" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E45" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="F45" s="2"/>
+      <c r="G45" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="32">
       <c r="A46" s="1">
         <v>46</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>117</v>
-      </c>
+      <c r="B46" s="1"/>
       <c r="C46" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D46" s="2" t="b">
+        <v>76</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E46" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E46" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="F46" s="2"/>
+      <c r="G46" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="32">
       <c r="A47" s="1">
         <v>47</v>
       </c>
-      <c r="B47" s="4" t="s">
-        <v>117</v>
-      </c>
+      <c r="B47" s="1"/>
       <c r="C47" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D47" s="2" t="b">
+        <v>76</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E47" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="F47" s="2"/>
+      <c r="G47" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="32">
       <c r="A48" s="1">
         <v>48</v>
       </c>
-      <c r="B48" s="4" t="s">
-        <v>117</v>
-      </c>
+      <c r="B48" s="1"/>
       <c r="C48" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D48" s="2" t="b">
+        <v>76</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="F48" s="2"/>
+      <c r="G48" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="32">
       <c r="A49" s="1">
         <v>49</v>
       </c>
-      <c r="B49" s="4" t="s">
-        <v>117</v>
-      </c>
+      <c r="B49" s="1"/>
       <c r="C49" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D49" s="2" t="b">
+        <v>76</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="E49" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="48">
+      <c r="F49" s="2"/>
+      <c r="G49" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="48">
       <c r="A50" s="1">
         <v>50</v>
       </c>
-      <c r="B50" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="B50" s="1"/>
       <c r="C50" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="120">
+        <v>75</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="120">
       <c r="A51" s="1">
         <v>53</v>
       </c>
-      <c r="B51" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="E51" t="s">
-        <v>109</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="120">
+      <c r="B51" s="1"/>
+      <c r="C51" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="120">
       <c r="A52" s="1">
         <v>54</v>
       </c>
-      <c r="B52" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="40">
+      <c r="B52" s="1"/>
+      <c r="C52" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="40">
       <c r="A53" s="1">
         <v>55</v>
       </c>
-      <c r="B53" s="3" t="s">
-        <v>120</v>
-      </c>
+      <c r="B53" s="1"/>
       <c r="C53" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D53" s="9" t="b">
+        <v>79</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E53" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="40">
+      <c r="G53" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="60">
       <c r="A54" s="1">
         <v>56</v>
       </c>
-      <c r="B54" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="B54" s="1"/>
       <c r="C54" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D54" s="9" t="b">
+        <v>76</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E54" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="38">
+      <c r="G54" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="38">
       <c r="A55" s="1">
         <v>57</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="D55" s="9" t="b">
+      <c r="B55" s="1"/>
+      <c r="C55" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E55" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="100">
+      <c r="G55" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="120">
       <c r="A56" s="1">
         <v>58</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="40">
+      <c r="B56" s="1"/>
+      <c r="C56" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="40">
       <c r="A57" s="1">
         <v>59</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="B57" s="1"/>
       <c r="C57" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D57" s="9" t="b">
+        <v>76</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E57" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="40">
+      <c r="G57" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="60">
       <c r="A58" s="1">
         <v>60</v>
       </c>
-      <c r="B58" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" ht="40">
+      <c r="B58" s="1"/>
+      <c r="C58" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="40">
       <c r="A59" s="1">
         <v>61</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="B59" s="1"/>
       <c r="C59" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D59" s="9" t="b">
+        <v>76</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E59" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="32">
+      <c r="G59" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="40">
       <c r="A60" s="1">
         <v>62</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="20">
+      <c r="B60" s="1"/>
+      <c r="C60" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="20">
       <c r="A61" s="1">
         <v>64</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="B61" s="1"/>
       <c r="C61" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D61" s="9" t="b">
+        <v>76</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E61" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="F61" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="40">
+      <c r="G61" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="40">
       <c r="A62" s="1">
         <v>65</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="40">
+      <c r="B62" s="1"/>
+      <c r="C62" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="40">
       <c r="A63" s="1">
         <v>66</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" ht="40">
+      <c r="B63" s="1"/>
+      <c r="C63" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="40">
       <c r="A64" s="1">
         <v>67</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" ht="20">
+      <c r="B64" s="1"/>
+      <c r="C64" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="40">
       <c r="A65" s="1">
         <v>68</v>
       </c>
-      <c r="B65" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="D65" s="9" t="b">
+      <c r="B65" s="1"/>
+      <c r="C65" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E65" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="F65" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" ht="40">
+      <c r="G65" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="40">
       <c r="A66" s="1">
         <v>69</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" ht="40">
+      <c r="B66" s="1"/>
+      <c r="C66" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="60">
       <c r="A67" s="1">
         <v>70</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" ht="40">
+      <c r="B67" s="1"/>
+      <c r="C67" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="40">
       <c r="A68" s="1">
         <v>71</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="B68" s="1"/>
       <c r="C68" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" ht="40">
+        <v>77</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="40">
       <c r="A69" s="1">
         <v>72</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="B69" s="1"/>
       <c r="C69" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" ht="40">
+        <v>77</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="40">
       <c r="A70" s="1">
         <v>73</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="B70" s="1"/>
       <c r="C70" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="40">
+        <v>77</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="40">
       <c r="A71" s="1">
         <v>74</v>
       </c>
-      <c r="B71" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="B71" s="1"/>
       <c r="C71" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" ht="40">
+        <v>77</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="40">
       <c r="A72" s="1">
         <v>75</v>
       </c>
-      <c r="B72" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="B72" s="1"/>
       <c r="C72" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" ht="40">
+        <v>77</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="40">
       <c r="A73" s="1">
         <v>76</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="B73" s="1"/>
       <c r="C73" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" ht="40">
+        <v>77</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="40">
       <c r="A74" s="1">
         <v>77</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="B74" s="1"/>
       <c r="C74" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D74" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" ht="40">
+        <v>77</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="40">
       <c r="A75" s="1">
         <v>78</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="1"/>
+      <c r="C75" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C75" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F75" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" ht="40">
+      <c r="E75" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="40">
       <c r="A76" s="1">
         <v>79</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="B76" s="1"/>
       <c r="C76" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="40">
+        <v>77</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="40">
       <c r="A77" s="1">
         <v>80</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="B77" s="1"/>
       <c r="C77" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="F77" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="40">
+        <v>77</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="40">
       <c r="A78" s="1">
         <v>81</v>
       </c>
-      <c r="B78" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="B78" s="1"/>
       <c r="C78" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="40">
+        <v>77</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="40">
       <c r="A79" s="1">
         <v>82</v>
       </c>
-      <c r="B79" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="B79" s="1"/>
       <c r="C79" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F79" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D79" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" ht="40">
+      <c r="E79" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="40">
       <c r="A80" s="1">
         <v>83</v>
       </c>
-      <c r="B80" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="B80" s="1"/>
       <c r="C80" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="40">
+        <v>77</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="40">
       <c r="A81" s="1">
         <v>84</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="B81" s="1"/>
       <c r="C81" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="40">
+        <v>77</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="40">
       <c r="A82" s="1">
         <v>85</v>
       </c>
-      <c r="B82" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="B82" s="1"/>
       <c r="C82" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="D82" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="40">
+        <v>77</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="40">
       <c r="A83" s="1">
         <v>86</v>
       </c>
-      <c r="B83" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="B83" s="1"/>
       <c r="C83" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D83" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="40">
+        <v>77</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="40">
       <c r="A84" s="1">
         <v>87</v>
       </c>
-      <c r="B84" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="B84" s="1"/>
       <c r="C84" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="40">
+        <v>77</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="40">
       <c r="A85" s="1">
         <v>88</v>
       </c>
-      <c r="B85" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="B85" s="1"/>
       <c r="C85" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="40">
+        <v>77</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="40">
       <c r="A86" s="1">
         <v>89</v>
       </c>
-      <c r="B86" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="B86" s="1"/>
       <c r="C86" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D86" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="40">
+        <v>77</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="40">
       <c r="A87" s="1">
         <v>90</v>
       </c>
-      <c r="B87" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="B87" s="1"/>
       <c r="C87" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D87" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="40">
+        <v>77</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="40">
       <c r="A88" s="1">
         <v>91</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="B88" s="1"/>
       <c r="C88" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D88" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="40">
+        <v>77</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="40">
       <c r="A89" s="1">
         <v>92</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="B89" s="1"/>
       <c r="C89" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D89" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" ht="40">
+        <v>77</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="40">
       <c r="A90" s="1">
         <v>93</v>
       </c>
-      <c r="B90" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="B90" s="1"/>
       <c r="C90" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D90" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="F90" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" ht="40">
+        <v>77</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="40">
       <c r="A91" s="1">
         <v>94</v>
       </c>
-      <c r="B91" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="B91" s="1"/>
       <c r="C91" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" ht="40">
+        <v>77</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="40">
       <c r="A92" s="1">
         <v>95</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="B92" s="1"/>
       <c r="C92" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" ht="40">
+        <v>77</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="40">
       <c r="A93" s="1">
         <v>96</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>118</v>
-      </c>
+      <c r="B93" s="1"/>
       <c r="C93" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" ht="20">
+        <v>77</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="40">
       <c r="A94" s="1">
         <v>97</v>
       </c>
-      <c r="B94" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="B94" s="1"/>
       <c r="C94" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="D94" s="9" t="b">
+        <v>76</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E94" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" ht="20">
+      <c r="G94" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="40">
       <c r="A95" s="1">
         <v>98</v>
       </c>
-      <c r="B95" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="B95" s="1"/>
       <c r="C95" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="D95" s="9" t="b">
+        <v>76</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E95" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="F95" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" ht="20">
+      <c r="G95" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="20">
       <c r="A96" s="1">
         <v>99</v>
       </c>
-      <c r="B96" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="B96" s="1"/>
       <c r="C96" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D96" s="9" t="b">
+        <v>76</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E96" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="F96" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="20">
+      <c r="G96" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="40">
       <c r="A97" s="1">
         <v>100</v>
       </c>
-      <c r="B97" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="B97" s="1"/>
       <c r="C97" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D97" s="9" t="b">
+        <v>76</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E97" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="F97" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="20">
+      <c r="G97" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="20">
       <c r="A98" s="1">
         <v>101</v>
       </c>
-      <c r="B98" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="B98" s="1"/>
       <c r="C98" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D98" s="9" t="b">
+        <v>76</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E98" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="F98" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="20">
+      <c r="G98" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="40">
       <c r="A99" s="1">
         <v>102</v>
       </c>
-      <c r="B99" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="B99" s="1"/>
       <c r="C99" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D99" s="9" t="b">
+        <v>76</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E99" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="F99" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="20">
+      <c r="G99" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="20">
       <c r="A100" s="1">
         <v>103</v>
       </c>
-      <c r="B100" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="B100" s="1"/>
       <c r="C100" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D100" s="9" t="b">
+        <v>76</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E100" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="20">
+      <c r="G100" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="40">
       <c r="A101" s="1">
         <v>104</v>
       </c>
-      <c r="B101" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="B101" s="1"/>
       <c r="C101" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="D101" s="9" t="b">
+        <v>76</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E101" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="20">
+      <c r="G101" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="20">
       <c r="A102" s="1">
         <v>105</v>
       </c>
-      <c r="B102" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="B102" s="1"/>
       <c r="C102" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D102" s="9" t="b">
+        <v>76</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E102" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="20">
+      <c r="G102" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="40">
       <c r="A103" s="1">
         <v>106</v>
       </c>
-      <c r="B103" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="B103" s="1"/>
       <c r="C103" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D103" s="9" t="b">
+        <v>76</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E103" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="F103" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" ht="20">
+      <c r="G103" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="20">
       <c r="A104" s="1">
         <v>107</v>
       </c>
-      <c r="B104" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="B104" s="1"/>
       <c r="C104" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D104" s="9" t="b">
+        <v>76</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E104" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="F104" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" ht="20">
+      <c r="G104" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="20">
       <c r="A105" s="1">
         <v>108</v>
       </c>
-      <c r="B105" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="B105" s="1"/>
       <c r="C105" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="D105" s="9" t="b">
+        <v>76</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E105" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="F105" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" ht="20">
+      <c r="G105" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="20">
       <c r="A106" s="1">
         <v>109</v>
       </c>
-      <c r="B106" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="B106" s="1"/>
       <c r="C106" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D106" s="9" t="b">
+        <v>76</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E106" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="F106" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" ht="20">
+      <c r="G106" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="20">
       <c r="A107" s="1">
         <v>110</v>
       </c>
-      <c r="B107" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="B107" s="1"/>
       <c r="C107" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="D107" s="9" t="b">
+        <v>76</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E107" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="F107" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="20">
+      <c r="G107" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="20">
       <c r="A108" s="1">
         <v>111</v>
       </c>
-      <c r="B108" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="B108" s="1"/>
       <c r="C108" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="D108" s="9" t="b">
+        <v>76</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E108" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="F108" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="20">
+      <c r="G108" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="20">
       <c r="A109" s="1">
         <v>112</v>
       </c>
-      <c r="B109" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="B109" s="1"/>
       <c r="C109" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D109" s="9" t="b">
+        <v>76</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E109" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="F109" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="20">
+      <c r="G109" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="20">
       <c r="A110" s="1">
         <v>113</v>
       </c>
-      <c r="B110" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="B110" s="1"/>
       <c r="C110" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="D110" s="9" t="b">
+        <v>76</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E110" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="F110" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="20">
+      <c r="G110" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="20">
       <c r="A111" s="1">
         <v>114</v>
       </c>
-      <c r="B111" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="B111" s="1"/>
       <c r="C111" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D111" s="9" t="b">
+        <v>76</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E111" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="F111" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="20">
+      <c r="G111" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="20">
       <c r="A112" s="1">
         <v>115</v>
       </c>
-      <c r="B112" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="B112" s="1"/>
       <c r="C112" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="D112" s="9" t="b">
+        <v>76</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E112" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="F112" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="20">
+      <c r="G112" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="20">
       <c r="A113" s="1">
         <v>116</v>
       </c>
-      <c r="B113" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="B113" s="1"/>
       <c r="C113" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D113" s="9" t="b">
+        <v>76</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E113" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="F113" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="20">
+      <c r="G113" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="20">
       <c r="A114" s="1">
         <v>117</v>
       </c>
-      <c r="B114" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="B114" s="1"/>
       <c r="C114" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="D114" s="9" t="b">
+        <v>76</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E114" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="F114" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="20">
+      <c r="G114" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="20">
       <c r="A115" s="1">
         <v>118</v>
       </c>
-      <c r="B115" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="B115" s="1"/>
       <c r="C115" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="D115" s="9" t="b">
+        <v>76</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E115" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="F115" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="20">
+      <c r="G115" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="20">
       <c r="A116" s="1">
         <v>119</v>
       </c>
-      <c r="B116" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="B116" s="1"/>
       <c r="C116" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="D116" s="9" t="b">
+        <v>76</v>
+      </c>
+      <c r="D116" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E116" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="F116" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="20">
+      <c r="G116" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="20">
       <c r="A117" s="1">
         <v>120</v>
       </c>
-      <c r="B117" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="B117" s="1"/>
       <c r="C117" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D117" s="9" t="b">
+        <v>76</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="E117" s="7" t="b">
         <v>0</v>
       </c>
-      <c r="F117" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="20">
+      <c r="G117" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="20">
       <c r="A118" s="1">
         <v>121</v>
       </c>
-      <c r="B118" s="3" t="s">
-        <v>117</v>
-      </c>
+      <c r="B118" s="1"/>
       <c r="C118" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D118" s="9" t="b">
+        <v>76</v>
+      </c>
+      <c r="D118" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E118" s="7" t="b">
         <v>1</v>
       </c>
-      <c r="F118" s="3" t="s">
-        <v>122</v>
+      <c r="G118" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
